--- a/P05/docs/MASS_Scrum.xlsx
+++ b/P05/docs/MASS_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P05\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ECF441-6DF5-4CA0-A962-75EFB1D23548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07968C41-2E15-4820-B39D-7F9A97A9F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
   <si>
     <t>Product Name:</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Requires Shelter class with a shelter name and array list of animals. Need to be able to add an animal and access the available animals.</t>
-  </si>
-  <si>
-    <t>CAT</t>
   </si>
   <si>
     <r>
@@ -635,7 +632,25 @@
     <t>Finished in Sprint 1</t>
   </si>
   <si>
-    <t>In Work</t>
+    <t>"Created  animal class with constructor","Validate age and thrown exception"</t>
+  </si>
+  <si>
+    <t>Completed Day 2</t>
+  </si>
+  <si>
+    <t>LIZARD</t>
+  </si>
+  <si>
+    <t>"Created class Lizard that extend animal with lizardbreed enum with its own constructor and tostring() "</t>
+  </si>
+  <si>
+    <t>"Created class dog that extend animal with dogbreed enum with its own constructor and tostring()</t>
+  </si>
+  <si>
+    <t>Completed Day 5</t>
+  </si>
+  <si>
+    <t>"Create shelter class","Arraylist of animal and must be able to add and access the animals"</t>
   </si>
 </sst>
 </file>
@@ -1147,19 +1162,19 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,10 +1458,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1458,13 +1473,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1694,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -1827,7 +1842,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -1901,7 +1916,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3460,8 +3475,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3503,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -3549,7 +3564,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -3557,7 +3572,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="5">
         <v>1001841216</v>
@@ -3671,11 +3686,11 @@
       </c>
       <c r="B13" s="2">
         <f>B12-C13</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
@@ -3695,7 +3710,7 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 2")</f>
@@ -3719,7 +3734,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
@@ -3743,7 +3758,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3763,7 +3778,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3896,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>31</v>
@@ -3929,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>36</v>
@@ -3962,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
@@ -3979,7 +3994,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6">
       <c r="A27" s="19" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="B27" s="15">
         <v>4</v>
@@ -3995,24 +4010,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="K27" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="21">
         <v>5</v>
@@ -4030,18 +4045,18 @@
         <v>31</v>
       </c>
       <c r="I28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="K28" s="23" t="s">
         <v>50</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="21">
         <v>6</v>
@@ -4059,18 +4074,18 @@
         <v>31</v>
       </c>
       <c r="I29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="21">
         <v>7</v>
@@ -4088,18 +4103,18 @@
         <v>31</v>
       </c>
       <c r="I30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="K30" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="21">
         <v>8</v>
@@ -4117,18 +4132,18 @@
         <v>31</v>
       </c>
       <c r="I31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="K31" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.8">
       <c r="A32" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="21">
         <v>9</v>
@@ -4146,18 +4161,18 @@
         <v>36</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="23" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1024" ht="28.8">
       <c r="A33" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="21">
         <v>10</v>
@@ -4175,18 +4190,18 @@
         <v>36</v>
       </c>
       <c r="I33" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="K33" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1024" ht="39.6">
       <c r="A34" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="21">
         <v>11</v>
@@ -4204,18 +4219,18 @@
         <v>36</v>
       </c>
       <c r="I34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="K34" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1024" s="24" customFormat="1" ht="26.4">
       <c r="A35" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="15">
         <v>12</v>
@@ -4230,21 +4245,21 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="J35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1024" s="24" customFormat="1" ht="26.4">
       <c r="A36" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="15">
         <v>13</v>
@@ -4259,21 +4274,21 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:1024" s="24" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="15">
         <v>14</v>
@@ -4288,21 +4303,21 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="J37" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="K37" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1024" s="24" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="15">
         <v>15</v>
@@ -4317,21 +4332,21 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I38" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="K38" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1024" s="24" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="15">
         <v>16</v>
@@ -4346,21 +4361,21 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="K39" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:1024" ht="26.4">
       <c r="A40" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="21">
         <v>17</v>
@@ -4378,13 +4393,13 @@
         <v>36</v>
       </c>
       <c r="I40" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="K40" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -5402,7 +5417,7 @@
     </row>
     <row r="41" spans="1:1024" ht="26.4">
       <c r="A41" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="21">
         <v>18</v>
@@ -5418,13 +5433,13 @@
       <c r="G41" s="16"/>
       <c r="H41" s="22"/>
       <c r="I41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -6442,7 +6457,7 @@
     </row>
     <row r="42" spans="1:1024" ht="26.4">
       <c r="A42" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="21">
         <v>19</v>
@@ -6460,18 +6475,18 @@
         <v>36</v>
       </c>
       <c r="I42" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="K42" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:1024">
       <c r="A43" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="21">
         <v>20</v>
@@ -6486,21 +6501,21 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="K43" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:1024" s="24" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="15">
         <v>21</v>
@@ -6515,21 +6530,21 @@
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I44" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="K44" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1024" s="24" customFormat="1" ht="26.4">
       <c r="A45" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="15">
         <v>22</v>
@@ -6547,13 +6562,13 @@
         <v>36</v>
       </c>
       <c r="I45" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="K45" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1024" s="24" customFormat="1" ht="4.5" customHeight="1">
@@ -6579,21 +6594,21 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:1024" ht="26.4">
       <c r="A48" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21">
         <v>4</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="21">
         <v>5</v>
@@ -6601,28 +6616,28 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I48" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="24" customFormat="1" ht="26.4">
       <c r="A49" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21">
         <v>4</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="21">
         <v>8</v>
@@ -6630,16 +6645,16 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I49" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7350,8 +7365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -7381,14 +7396,14 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="34">
         <v>44614</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -7397,7 +7412,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -7412,10 +7427,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -7440,7 +7455,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -7450,11 +7465,11 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -7465,11 +7480,11 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7483,7 +7498,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -7491,7 +7506,7 @@
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -7501,7 +7516,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -7519,7 +7534,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -7537,15 +7552,15 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -7555,11 +7570,11 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -7573,11 +7588,11 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -7601,16 +7616,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -7623,35 +7638,57 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="41"/>
+        <v>149</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
@@ -8377,7 +8414,7 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="34">
         <f>'Sprint 01 Backlog'!B3</f>
@@ -8385,7 +8422,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -8394,7 +8431,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -8409,10 +8446,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -8437,7 +8474,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -8447,7 +8484,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -8462,7 +8499,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -8480,7 +8517,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -8498,7 +8535,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -8516,7 +8553,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -8534,7 +8571,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -8552,7 +8589,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -8570,7 +8607,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -8598,16 +8635,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -8622,7 +8659,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -9374,7 +9411,7 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="34">
         <f>'Sprint 02 Backlog'!B2+7</f>
@@ -9382,7 +9419,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -9391,7 +9428,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -9406,10 +9443,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -9434,7 +9471,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -9444,7 +9481,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -9459,7 +9496,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -9477,7 +9514,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -9495,7 +9532,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -9513,7 +9550,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -9531,7 +9568,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -9549,7 +9586,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -9567,7 +9604,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -9595,16 +9632,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -9619,7 +9656,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -10371,14 +10408,14 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="34">
         <v>44663</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -10387,7 +10424,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -10402,10 +10439,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -10430,7 +10467,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -10440,7 +10477,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -10455,7 +10492,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -10473,7 +10510,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -10491,7 +10528,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -10509,7 +10546,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -10527,7 +10564,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -10545,7 +10582,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -10563,7 +10600,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -10591,16 +10628,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -10615,7 +10652,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -11367,7 +11404,7 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="34">
         <f>'Sprint 04 Backlog'!B2+7</f>
@@ -11375,7 +11412,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -11384,7 +11421,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -11399,10 +11436,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -11427,7 +11464,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -11437,7 +11474,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -11452,7 +11489,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -11470,7 +11507,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -11488,7 +11525,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -11506,7 +11543,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -11524,7 +11561,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -11542,7 +11579,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -11560,7 +11597,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -11588,16 +11625,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -11612,7 +11649,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="41"/>
     </row>
